--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.013</v>
+        <v>0.021</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.577</v>
+        <v>-0.299</v>
       </c>
       <c r="D4" t="n">
-        <v>-19923.08</v>
+        <v>-1523.81</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.023</v>
+        <v>0.024</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.138</v>
+        <v>0.013</v>
       </c>
       <c r="D5" t="n">
-        <v>-700</v>
+        <v>-45.83</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.142</v>
+        <v>2.866</v>
       </c>
       <c r="C6" t="n">
-        <v>11.383</v>
+        <v>3.803</v>
       </c>
       <c r="D6" t="n">
-        <v>262.29</v>
+        <v>32.69</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.198</v>
+        <v>0.192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.764</v>
+        <v>0.229</v>
       </c>
       <c r="D7" t="n">
-        <v>285.86</v>
+        <v>19.27</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>10.979</v>
       </c>
       <c r="C8" t="n">
-        <v>22.132</v>
+        <v>13.723</v>
       </c>
       <c r="D8" t="n">
-        <v>101.58</v>
+        <v>24.99</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.201</v>
+        <v>2.195</v>
       </c>
       <c r="C9" t="n">
-        <v>9.757</v>
+        <v>2.636</v>
       </c>
       <c r="D9" t="n">
-        <v>343.3</v>
+        <v>20.09</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>18.043</v>
+        <v>14.834</v>
       </c>
       <c r="C10" t="n">
-        <v>148.782</v>
+        <v>27.709</v>
       </c>
       <c r="D10" t="n">
-        <v>724.6</v>
+        <v>86.79000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.062</v>
+        <v>0.053</v>
       </c>
       <c r="C11" t="n">
-        <v>1.793</v>
+        <v>0.116</v>
       </c>
       <c r="D11" t="n">
-        <v>2791.94</v>
+        <v>118.87</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.06900000000000001</v>
+        <v>-0.011</v>
       </c>
       <c r="C12" t="n">
-        <v>-7.816</v>
+        <v>-0.888</v>
       </c>
       <c r="D12" t="n">
-        <v>11227.54</v>
+        <v>7972.73</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>4.248</v>
+        <v>3.851</v>
       </c>
       <c r="C13" t="n">
-        <v>12.198</v>
+        <v>5.264</v>
       </c>
       <c r="D13" t="n">
-        <v>187.15</v>
+        <v>36.69</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.232595980167389</v>
+        <v>4.08053335689363</v>
       </c>
       <c r="C4" t="n">
-        <v>3.833177998661995</v>
+        <v>5.401063646589007</v>
       </c>
       <c r="D4" t="n">
-        <v>18.58</v>
+        <v>32.36</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3609258212148284</v>
+        <v>0.7827507461307412</v>
       </c>
       <c r="F4" t="n">
-        <v>0.4465417814999246</v>
+        <v>1.422259137220327</v>
       </c>
       <c r="G4" t="n">
-        <v>23.72</v>
+        <v>81.7</v>
       </c>
     </row>
     <row r="5">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.32282940039928</v>
+        <v>5.642145704762887</v>
       </c>
       <c r="C6" t="n">
-        <v>4.375073907903414</v>
+        <v>4.067842043404743</v>
       </c>
       <c r="D6" t="n">
-        <v>-17.81</v>
+        <v>-27.9</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9593917453129216</v>
+        <v>1.040142963600819</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3226077793892262</v>
+        <v>0.662877916952183</v>
       </c>
       <c r="G6" t="n">
-        <v>-66.37</v>
+        <v>-36.27</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.021</v>
+        <v>-0.03</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.299</v>
+        <v>-0.024</v>
       </c>
       <c r="D4" t="n">
-        <v>-1523.81</v>
+        <v>-20</v>
       </c>
     </row>
     <row r="5">
@@ -522,13 +522,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.024</v>
+        <v>0.019</v>
       </c>
       <c r="C5" t="n">
-        <v>0.013</v>
+        <v>-0.004</v>
       </c>
       <c r="D5" t="n">
-        <v>-45.83</v>
+        <v>-121.05</v>
       </c>
     </row>
     <row r="6">
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.866</v>
+        <v>2.756</v>
       </c>
       <c r="C6" t="n">
-        <v>3.803</v>
+        <v>2.741</v>
       </c>
       <c r="D6" t="n">
-        <v>32.69</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="7">
@@ -554,13 +554,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.192</v>
+        <v>0.209</v>
       </c>
       <c r="C7" t="n">
-        <v>0.229</v>
+        <v>0.202</v>
       </c>
       <c r="D7" t="n">
-        <v>19.27</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.979</v>
+        <v>8.888</v>
       </c>
       <c r="C8" t="n">
-        <v>13.723</v>
+        <v>10.435</v>
       </c>
       <c r="D8" t="n">
-        <v>24.99</v>
+        <v>17.41</v>
       </c>
     </row>
     <row r="9">
@@ -586,13 +586,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.195</v>
+        <v>2.651</v>
       </c>
       <c r="C9" t="n">
-        <v>2.636</v>
+        <v>2.406</v>
       </c>
       <c r="D9" t="n">
-        <v>20.09</v>
+        <v>-9.24</v>
       </c>
     </row>
     <row r="10">
@@ -602,13 +602,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.834</v>
+        <v>11.837</v>
       </c>
       <c r="C10" t="n">
-        <v>27.709</v>
+        <v>11.873</v>
       </c>
       <c r="D10" t="n">
-        <v>86.79000000000001</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="11">
@@ -618,13 +618,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.053</v>
+        <v>0.05</v>
       </c>
       <c r="C11" t="n">
-        <v>0.116</v>
+        <v>0.048</v>
       </c>
       <c r="D11" t="n">
-        <v>118.87</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="12">
@@ -634,13 +634,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.011</v>
+        <v>-0.001</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.888</v>
+        <v>-0.004</v>
       </c>
       <c r="D12" t="n">
-        <v>7972.73</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13">
@@ -650,13 +650,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.851</v>
+        <v>3.441</v>
       </c>
       <c r="C13" t="n">
-        <v>5.264</v>
+        <v>3.446</v>
       </c>
       <c r="D13" t="n">
-        <v>36.69</v>
+        <v>0.15</v>
       </c>
     </row>
   </sheetData>
@@ -745,22 +745,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.08053335689363</v>
+        <v>2.812127232551575</v>
       </c>
       <c r="C4" t="n">
-        <v>5.401063646589007</v>
+        <v>4.112679629098801</v>
       </c>
       <c r="D4" t="n">
-        <v>32.36</v>
+        <v>46.25</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7827507461307412</v>
+        <v>0.7397810116262143</v>
       </c>
       <c r="F4" t="n">
-        <v>1.422259137220327</v>
+        <v>0.9131847306896304</v>
       </c>
       <c r="G4" t="n">
-        <v>81.7</v>
+        <v>23.44</v>
       </c>
     </row>
     <row r="5">
@@ -773,10 +773,10 @@
         <v>2.954</v>
       </c>
       <c r="C5" t="n">
-        <v>1.678</v>
+        <v>2.122</v>
       </c>
       <c r="D5" t="n">
-        <v>-43.2</v>
+        <v>-28.17</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.642145704762887</v>
+        <v>3.424236619778813</v>
       </c>
       <c r="C6" t="n">
-        <v>4.067842043404743</v>
+        <v>2.515480472458993</v>
       </c>
       <c r="D6" t="n">
-        <v>-27.9</v>
+        <v>-26.54</v>
       </c>
       <c r="E6" t="n">
-        <v>1.040142963600819</v>
+        <v>0.9118159212023133</v>
       </c>
       <c r="F6" t="n">
-        <v>0.662877916952183</v>
+        <v>0.3772222953848843</v>
       </c>
       <c r="G6" t="n">
-        <v>-36.27</v>
+        <v>-58.63</v>
       </c>
     </row>
   </sheetData>

--- a/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
+++ b/results/InceptionNet/AppliancesEnergy/low-rank_quant-static_pruning_quant-qat/0_low-rank_metrics.xlsx
@@ -84,11 +84,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,8 +469,8 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -483,7 +485,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -686,13 +688,13 @@
       <c r="B1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="n"/>
-      <c r="D1" s="1" t="n"/>
+      <c r="C1" s="2" t="n"/>
+      <c r="D1" s="3" t="n"/>
       <c r="E1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="n"/>
-      <c r="G1" s="1" t="n"/>
+      <c r="F1" s="2" t="n"/>
+      <c r="G1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -707,7 +709,7 @@
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
@@ -722,7 +724,7 @@
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>fedcore</t>
+          <t>approach</t>
         </is>
       </c>
       <c r="G2" s="1" t="inlineStr">
@@ -784,7 +786,6 @@
       <c r="F5" t="n">
         <v>0</v>
       </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
